--- a/peserta.xlsx
+++ b/peserta.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>nama</t>
   </si>
@@ -36,6 +36,48 @@
   </si>
   <si>
     <t>kategori</t>
+  </si>
+  <si>
+    <t>demsy iman m</t>
+  </si>
+  <si>
+    <t>tc13</t>
+  </si>
+  <si>
+    <t>ITS CUP</t>
+  </si>
+  <si>
+    <t>Beregu Putra</t>
+  </si>
+  <si>
+    <t>ridho perdana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahbana </t>
+  </si>
+  <si>
+    <t>ITS Hero</t>
+  </si>
+  <si>
+    <t>Beregu Putri</t>
+  </si>
+  <si>
+    <t>Andy Pramana</t>
+  </si>
+  <si>
+    <t>Arif</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Budi</t>
+  </si>
+  <si>
+    <t>QWERT</t>
   </si>
 </sst>
 </file>
@@ -353,13 +395,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -369,10 +417,94 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
